--- a/_CLUSTER/groups_time_area/interpolation/combined_feature_engineering/Area5_count.xlsx
+++ b/_CLUSTER/groups_time_area/interpolation/combined_feature_engineering/Area5_count.xlsx
@@ -375,26 +375,26 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>23621</v>
+        <v>49427</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>16519</v>
+        <v>5446</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>13930</v>
+        <v>3936</v>
       </c>
     </row>
     <row r="5">
@@ -402,7 +402,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>6139</v>
+        <v>1400</v>
       </c>
     </row>
   </sheetData>

--- a/_CLUSTER/groups_time_area/interpolation/combined_feature_engineering/Area5_count.xlsx
+++ b/_CLUSTER/groups_time_area/interpolation/combined_feature_engineering/Area5_count.xlsx
@@ -375,34 +375,34 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B2" t="n">
-        <v>49427</v>
+        <v>49638</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>5446</v>
+        <v>5435</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B4" t="n">
-        <v>3936</v>
+        <v>3725</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1400</v>
+        <v>1411</v>
       </c>
     </row>
   </sheetData>
